--- a/output/1Y_P7_1VAL-D.xlsx
+++ b/output/1Y_P7_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>10.7352</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>931.515</v>
       </c>
-      <c r="G2" s="1">
-        <v>931.515</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.114600000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>10.7352</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.114600000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>10.2783</v>
       </c>
+      <c r="E3" s="1">
+        <v>931.515</v>
+      </c>
       <c r="F3" s="1">
         <v>972.9235</v>
       </c>
-      <c r="G3" s="1">
-        <v>1904.4386</v>
-      </c>
       <c r="H3" s="1">
-        <v>19472.8842</v>
+        <v>9524.741</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10.5018</v>
+        <v>9524.741</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>10.7352</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19472.8842</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0238</v>
+        <v>-0.0475</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>9.807499999999999</v>
       </c>
+      <c r="E4" s="1">
+        <v>1904.4386</v>
+      </c>
       <c r="F4" s="1">
         <v>1019.6278</v>
       </c>
-      <c r="G4" s="1">
-        <v>2924.0664</v>
-      </c>
       <c r="H4" s="1">
-        <v>28528.9461</v>
+        <v>18580.8452</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>10.2597</v>
+        <v>18580.8452</v>
       </c>
       <c r="K4" s="1">
+        <v>20000</v>
+      </c>
+      <c r="L4" s="1">
+        <v>10.5018</v>
+      </c>
+      <c r="M4" s="1">
         <v>0.5</v>
       </c>
-      <c r="L4" s="1">
-        <v>856.9973</v>
-      </c>
-      <c r="M4" s="1">
-        <v>10000</v>
-      </c>
       <c r="N4" s="1">
-        <v>-9143.002699999999</v>
+        <v>419.1818</v>
       </c>
       <c r="O4" s="1">
-        <v>856.9973</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>29385.9435</v>
+        <v>-9580.8182</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0029</v>
+        <v>-0.0483</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>10.4459</v>
       </c>
+      <c r="E5" s="1">
+        <v>2924.0664</v>
+      </c>
       <c r="F5" s="1">
-        <v>966.4290999999999</v>
-      </c>
-      <c r="G5" s="1">
-        <v>3890.4955</v>
+        <v>961.7722</v>
       </c>
       <c r="H5" s="1">
-        <v>40428.8622</v>
+        <v>30386.0207</v>
       </c>
       <c r="I5" s="1">
-        <v>40095.2219</v>
+        <v>419.1818</v>
       </c>
       <c r="J5" s="1">
-        <v>10.3059</v>
+        <v>30805.2025</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30046.5758</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>10.2756</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-10095.2219</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>761.7754</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>41190.6376</v>
+        <v>-10046.5758</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0458</v>
+        <v>0.07779999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>9.6988</v>
       </c>
+      <c r="E6" s="1">
+        <v>3885.8385</v>
+      </c>
       <c r="F6" s="1">
-        <v>1040.8733</v>
-      </c>
-      <c r="G6" s="1">
-        <v>4931.3688</v>
+        <v>1035.8576</v>
       </c>
       <c r="H6" s="1">
-        <v>47579.8188</v>
+        <v>37492.1246</v>
       </c>
       <c r="I6" s="1">
-        <v>50190.4439</v>
+        <v>372.606</v>
       </c>
       <c r="J6" s="1">
-        <v>10.1778</v>
+        <v>37864.7306</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40093.1515</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>10.3178</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10095.2219</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>666.5535</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>48246.3723</v>
+        <v>-10046.5758</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0575</v>
+        <v>-0.0721</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>10.0658</v>
       </c>
+      <c r="E7" s="1">
+        <v>4921.6962</v>
+      </c>
       <c r="F7" s="1">
-        <v>1002.923</v>
-      </c>
-      <c r="G7" s="1">
-        <v>5934.2918</v>
+        <v>998.0901</v>
       </c>
       <c r="H7" s="1">
-        <v>59423.0306</v>
+        <v>49283.4044</v>
       </c>
       <c r="I7" s="1">
-        <v>60285.6658</v>
+        <v>326.0303</v>
       </c>
       <c r="J7" s="1">
-        <v>10.1589</v>
+        <v>49609.4347</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50139.7273</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>10.1875</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10095.2219</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>571.3316</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>59994.3621</v>
+        <v>-10046.5758</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.03</v>
+        <v>0.0365</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>11.2848</v>
       </c>
+      <c r="E8" s="1">
+        <v>5919.7863</v>
+      </c>
       <c r="F8" s="1">
-        <v>894.5857999999999</v>
-      </c>
-      <c r="G8" s="1">
-        <v>6828.8776</v>
+        <v>890.275</v>
       </c>
       <c r="H8" s="1">
-        <v>76663.02830000001</v>
+        <v>66457.2969</v>
       </c>
       <c r="I8" s="1">
-        <v>70380.88770000001</v>
+        <v>279.4545</v>
       </c>
       <c r="J8" s="1">
-        <v>10.3064</v>
+        <v>66736.75139999999</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60186.303</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>10.167</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10095.2219</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>476.1096</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>77139.1379</v>
+        <v>-10046.5758</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.1021</v>
+        <v>0.1196</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>11.1341</v>
       </c>
+      <c r="E9" s="1">
+        <v>6810.0613</v>
+      </c>
       <c r="F9" s="1">
-        <v>906.694</v>
-      </c>
-      <c r="G9" s="1">
-        <v>7735.5716</v>
+        <v>902.3249</v>
       </c>
       <c r="H9" s="1">
-        <v>85682.2852</v>
+        <v>75430.9633</v>
       </c>
       <c r="I9" s="1">
-        <v>80476.1096</v>
+        <v>232.8788</v>
       </c>
       <c r="J9" s="1">
-        <v>10.4034</v>
+        <v>75663.84209999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70232.87880000001</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>10.3131</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10095.2219</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>380.8877</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>86063.17290000001</v>
+        <v>-10046.5758</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0123</v>
+        <v>-0.014</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>10.9064</v>
       </c>
+      <c r="E10" s="1">
+        <v>7712.3862</v>
+      </c>
       <c r="F10" s="1">
-        <v>925.6237</v>
-      </c>
-      <c r="G10" s="1">
-        <v>8661.195299999999</v>
+        <v>921.1633</v>
       </c>
       <c r="H10" s="1">
-        <v>93972.2363</v>
+        <v>83677.84819999999</v>
       </c>
       <c r="I10" s="1">
-        <v>90571.3316</v>
+        <v>186.303</v>
       </c>
       <c r="J10" s="1">
-        <v>10.4571</v>
+        <v>83864.15119999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80279.45450000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>10.4092</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10095.2219</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>285.6658</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>94257.90210000001</v>
+        <v>-10046.5758</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0188</v>
+        <v>-0.021</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>11.6267</v>
       </c>
+      <c r="E11" s="1">
+        <v>8633.5496</v>
+      </c>
       <c r="F11" s="1">
-        <v>868.2791999999999</v>
-      </c>
-      <c r="G11" s="1">
-        <v>9529.4745</v>
+        <v>864.0952</v>
       </c>
       <c r="H11" s="1">
-        <v>110220.7606</v>
+        <v>99858.22440000001</v>
       </c>
       <c r="I11" s="1">
-        <v>100666.5535</v>
+        <v>139.7273</v>
       </c>
       <c r="J11" s="1">
-        <v>10.5637</v>
+        <v>99997.9516</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90326.0303</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>10.4622</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10095.2219</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>190.4439</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>110411.2045</v>
+        <v>-10046.5758</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.059</v>
+        <v>0.0653</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>12.3095</v>
       </c>
+      <c r="E12" s="1">
+        <v>9497.6448</v>
+      </c>
       <c r="F12" s="1">
-        <v>820.1163</v>
-      </c>
-      <c r="G12" s="1">
-        <v>10349.5908</v>
+        <v>816.1644</v>
       </c>
       <c r="H12" s="1">
-        <v>126736.9491</v>
+        <v>116304.3589</v>
       </c>
       <c r="I12" s="1">
-        <v>110761.7754</v>
+        <v>93.1515</v>
       </c>
       <c r="J12" s="1">
-        <v>10.702</v>
+        <v>116397.5104</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100372.606</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>10.5682</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10095.2219</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>95.22190000000001</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>126832.171</v>
+        <v>-10046.5758</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0533</v>
+        <v>0.0582</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>13.3876</v>
       </c>
+      <c r="E13" s="1">
+        <v>10313.8092</v>
+      </c>
       <c r="F13" s="1">
-        <v>754.0726</v>
-      </c>
-      <c r="G13" s="1">
-        <v>11103.6634</v>
+        <v>750.4389</v>
       </c>
       <c r="H13" s="1">
-        <v>147880.8095</v>
+        <v>137361.3735</v>
       </c>
       <c r="I13" s="1">
-        <v>120856.9973</v>
+        <v>46.5758</v>
       </c>
       <c r="J13" s="1">
-        <v>10.8844</v>
+        <v>137407.9492</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110419.1818</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>10.706</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10095.2219</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>147880.8095</v>
+        <v>-10046.5758</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.08069999999999999</v>
+        <v>0.0871</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>13.3141</v>
       </c>
+      <c r="E14" s="1">
+        <v>11064.2481</v>
+      </c>
       <c r="F14" s="1">
-        <v>-11103.6634</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-10313.8092</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>146545.9658</v>
       </c>
       <c r="I14" s="1">
-        <v>120856.9973</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>10.8844</v>
+        <v>146545.9658</v>
       </c>
       <c r="K14" s="1">
+        <v>110419.1818</v>
+      </c>
+      <c r="L14" s="1">
+        <v>9.979799999999999</v>
+      </c>
+      <c r="M14" s="1">
         <v>0.6</v>
       </c>
-      <c r="L14" s="1">
-        <v>5995.9782</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
       <c r="N14" s="1">
-        <v>153063.9995</v>
+        <v>5569.457</v>
       </c>
       <c r="O14" s="1">
-        <v>153063.9995</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>153063.9995</v>
+        <v>142175.8596</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0305</v>
+        <v>-0.0058</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>10.7352</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>931.515</v>
       </c>
       <c r="G2" s="1">
-        <v>931.515</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.114600000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>10.7352</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.114600000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>10.2783</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>931.515</v>
       </c>
       <c r="F3" s="1">
         <v>972.9235</v>
       </c>
       <c r="G3" s="1">
-        <v>1904.4386</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>19472.8842</v>
+        <v>9524.741</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10.5018</v>
+        <v>9524.741</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>10.7352</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19472.8842</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0238</v>
+        <v>-0.0475</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>9.807499999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1904.4386</v>
       </c>
       <c r="F4" s="1">
         <v>1019.6278</v>
       </c>
       <c r="G4" s="1">
-        <v>2924.0664</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>28528.9461</v>
+        <v>18580.8452</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>10.2597</v>
+        <v>18580.8452</v>
       </c>
       <c r="K4" s="1">
+        <v>20000</v>
+      </c>
+      <c r="L4" s="1">
+        <v>10.5018</v>
+      </c>
+      <c r="M4" s="1">
         <v>0.5</v>
       </c>
-      <c r="L4" s="1">
-        <v>856.9973</v>
-      </c>
-      <c r="M4" s="1">
-        <v>10000</v>
-      </c>
       <c r="N4" s="1">
-        <v>-9143.002699999999</v>
+        <v>419.1818</v>
       </c>
       <c r="O4" s="1">
-        <v>856.9973</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>29385.9435</v>
+        <v>-9580.8182</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0029</v>
+        <v>-0.0483</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>10.4459</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>2924.0664</v>
       </c>
       <c r="F5" s="1">
         <v>925.1594</v>
       </c>
       <c r="G5" s="1">
-        <v>3849.2258</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>30386.0207</v>
       </c>
       <c r="I5" s="1">
-        <v>39664.1229</v>
+        <v>419.1818</v>
       </c>
       <c r="J5" s="1">
-        <v>10.3044</v>
+        <v>30805.2025</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29664.1229</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>10.1448</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9664.1229</v>
       </c>
-      <c r="O5" s="1">
-        <v>1192.8744</v>
-      </c>
-      <c r="P5" s="1">
-        <v>41192.8744</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0459</v>
+        <v>0.07779999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>9.6988</v>
       </c>
       <c r="E6" s="1">
+        <v>3849.2258</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1108.9061</v>
+      </c>
+      <c r="G6" s="1">
         <v>50000</v>
       </c>
-      <c r="F6" s="1">
-        <v>1154.0473</v>
-      </c>
-      <c r="G6" s="1">
-        <v>5003.2732</v>
-      </c>
       <c r="H6" s="1">
-        <v>48273.5809</v>
+        <v>37138.8704</v>
       </c>
       <c r="I6" s="1">
-        <v>50856.9973</v>
+        <v>755.0588</v>
       </c>
       <c r="J6" s="1">
-        <v>10.1647</v>
+        <v>37893.9293</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40419.1818</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>10.5006</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-11192.8744</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>48273.5809</v>
+        <v>-10755.0588</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.057</v>
+        <v>-0.0713</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>10.0658</v>
       </c>
       <c r="E7" s="1">
+        <v>4958.132</v>
+      </c>
+      <c r="F7" s="1">
+        <v>993.463</v>
+      </c>
+      <c r="G7" s="1">
         <v>60000</v>
       </c>
-      <c r="F7" s="1">
-        <v>988.6377</v>
-      </c>
-      <c r="G7" s="1">
-        <v>5991.9109</v>
-      </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>49648.2544</v>
       </c>
       <c r="I7" s="1">
-        <v>60808.4272</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>10.1484</v>
+        <v>49648.2544</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50419.1818</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>10.169</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-9951.429899999999</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>48.5701</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>60048.5701</v>
+        <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0305</v>
+        <v>0.0366</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>11.2848</v>
       </c>
       <c r="E8" s="1">
+        <v>5951.595</v>
+      </c>
+      <c r="F8" s="1">
+        <v>283.7631</v>
+      </c>
+      <c r="G8" s="1">
         <v>70000</v>
       </c>
-      <c r="F8" s="1">
-        <v>243.4471</v>
-      </c>
-      <c r="G8" s="1">
-        <v>6235.358</v>
-      </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>66814.3906</v>
       </c>
       <c r="I8" s="1">
-        <v>63555.6793</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>10.1928</v>
+        <v>66814.3906</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>53621.3913</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>9.009600000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-2747.2521</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>7301.3181</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>77301.3181</v>
+        <v>-3202.2095</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.1035</v>
+        <v>0.1201</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>11.1341</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>6235.358</v>
       </c>
       <c r="F9" s="1">
         <v>987.2052</v>
       </c>
       <c r="G9" s="1">
-        <v>7222.5633</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>69065.3198</v>
       </c>
       <c r="I9" s="1">
-        <v>74547.32120000001</v>
+        <v>6797.7905</v>
       </c>
       <c r="J9" s="1">
-        <v>10.3214</v>
+        <v>75863.1103</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>64613.0332</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>10.3624</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10991.6419</v>
       </c>
-      <c r="O9" s="1">
-        <v>6309.6761</v>
-      </c>
-      <c r="P9" s="1">
-        <v>86309.6761</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0114</v>
+        <v>-0.0124</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>10.9064</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>7222.5633</v>
       </c>
       <c r="F10" s="1">
         <v>1072.5205</v>
       </c>
       <c r="G10" s="1">
-        <v>8295.0838</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>78363.36719999999</v>
       </c>
       <c r="I10" s="1">
-        <v>86244.6587</v>
+        <v>5806.1486</v>
       </c>
       <c r="J10" s="1">
-        <v>10.3971</v>
+        <v>84169.5157</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>76310.3707</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>10.5656</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-11697.3375</v>
       </c>
-      <c r="O10" s="1">
-        <v>4612.3386</v>
-      </c>
-      <c r="P10" s="1">
-        <v>94612.3386</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0176</v>
+        <v>-0.0197</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>11.6267</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>8295.0838</v>
       </c>
       <c r="F11" s="1">
         <v>350.7234</v>
       </c>
       <c r="G11" s="1">
-        <v>8645.807199999999</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>95943.42750000001</v>
       </c>
       <c r="I11" s="1">
-        <v>90322.4149</v>
+        <v>4108.8111</v>
       </c>
       <c r="J11" s="1">
-        <v>10.447</v>
+        <v>100052.2386</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>80388.1268</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>9.6911</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-4077.7562</v>
       </c>
-      <c r="O11" s="1">
-        <v>10534.5825</v>
-      </c>
-      <c r="P11" s="1">
-        <v>110534.5825</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0566</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>12.3095</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>8645.807199999999</v>
       </c>
       <c r="F12" s="1">
         <v>337.0111</v>
       </c>
       <c r="G12" s="1">
-        <v>8982.818300000001</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>105873.0968</v>
       </c>
       <c r="I12" s="1">
-        <v>94470.853</v>
+        <v>10031.0549</v>
       </c>
       <c r="J12" s="1">
-        <v>10.5168</v>
+        <v>115904.1518</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>84536.565</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>9.777799999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-4148.4382</v>
       </c>
-      <c r="O12" s="1">
-        <v>16386.1443</v>
-      </c>
-      <c r="P12" s="1">
-        <v>126386.1443</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0485</v>
+        <v>0.0532</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>13.3876</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>8982.818300000001</v>
       </c>
       <c r="F13" s="1">
         <v>27.4083</v>
       </c>
       <c r="G13" s="1">
-        <v>9010.2266</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>119634.9709</v>
       </c>
       <c r="I13" s="1">
-        <v>94837.78419999999</v>
+        <v>15882.6168</v>
       </c>
       <c r="J13" s="1">
-        <v>10.5256</v>
+        <v>135517.5877</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>84903.49619999999</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>9.4518</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-366.9312</v>
       </c>
-      <c r="O13" s="1">
-        <v>26019.2131</v>
-      </c>
-      <c r="P13" s="1">
-        <v>146019.2131</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0706</v>
+        <v>0.0764</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>13.3141</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>9010.2266</v>
       </c>
       <c r="F14" s="1">
         <v>-9010.2266</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>119340.4514</v>
       </c>
       <c r="I14" s="1">
-        <v>94837.78419999999</v>
+        <v>25515.6855</v>
       </c>
       <c r="J14" s="1">
-        <v>10.5256</v>
+        <v>144856.137</v>
       </c>
       <c r="K14" s="1">
+        <v>84903.49619999999</v>
+      </c>
+      <c r="L14" s="1">
+        <v>9.423</v>
+      </c>
+      <c r="M14" s="1">
         <v>0.6</v>
       </c>
-      <c r="L14" s="1">
-        <v>4865.5224</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
       <c r="N14" s="1">
-        <v>124205.9738</v>
+        <v>4850.7219</v>
       </c>
       <c r="O14" s="1">
-        <v>150225.1869</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>150225.1869</v>
+        <v>124191.1733</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0371</v>
+        <v>-0.0045</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>10.7352</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>931.515</v>
       </c>
       <c r="G2" s="1">
-        <v>931.515</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.114600000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>10.7352</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.114600000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>10.2783</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>931.515</v>
       </c>
       <c r="F3" s="1">
         <v>972.9235</v>
       </c>
       <c r="G3" s="1">
-        <v>1904.4386</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>19472.8842</v>
+        <v>9524.741</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10.5018</v>
+        <v>9524.741</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>10.7352</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19472.8842</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0238</v>
+        <v>-0.0475</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>9.807499999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1904.4386</v>
       </c>
       <c r="F4" s="1">
         <v>1019.6278</v>
       </c>
       <c r="G4" s="1">
-        <v>2924.0664</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>28528.9461</v>
+        <v>18580.8452</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>10.2597</v>
+        <v>18580.8452</v>
       </c>
       <c r="K4" s="1">
+        <v>20000</v>
+      </c>
+      <c r="L4" s="1">
+        <v>10.5018</v>
+      </c>
+      <c r="M4" s="1">
         <v>0.5</v>
       </c>
-      <c r="L4" s="1">
-        <v>856.9973</v>
-      </c>
-      <c r="M4" s="1">
-        <v>10000</v>
-      </c>
       <c r="N4" s="1">
-        <v>-9143.002699999999</v>
+        <v>419.1818</v>
       </c>
       <c r="O4" s="1">
-        <v>856.9973</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>29385.9435</v>
+        <v>-9580.8182</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0029</v>
+        <v>-0.0483</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>10.4459</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>2924.0664</v>
       </c>
       <c r="F5" s="1">
         <v>954.125</v>
       </c>
       <c r="G5" s="1">
-        <v>3878.1914</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>30386.0207</v>
       </c>
       <c r="I5" s="1">
-        <v>39966.6941</v>
+        <v>419.1818</v>
       </c>
       <c r="J5" s="1">
-        <v>10.3055</v>
+        <v>30805.2025</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29966.6941</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>10.2483</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9966.694100000001</v>
       </c>
-      <c r="O5" s="1">
-        <v>890.3031999999999</v>
-      </c>
-      <c r="P5" s="1">
-        <v>41191.3045</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0458</v>
+        <v>0.07779999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>9.6988</v>
       </c>
       <c r="E6" s="1">
+        <v>3878.1914</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1077.7094</v>
+      </c>
+      <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
-      <c r="F6" s="1">
-        <v>1122.8506</v>
-      </c>
-      <c r="G6" s="1">
-        <v>5001.042</v>
-      </c>
       <c r="H6" s="1">
-        <v>48252.0532</v>
+        <v>37418.3416</v>
       </c>
       <c r="I6" s="1">
-        <v>50856.9973</v>
+        <v>452.4876</v>
       </c>
       <c r="J6" s="1">
-        <v>10.1693</v>
+        <v>37870.8292</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40419.1818</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>10.4222</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10890.3032</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>48252.0532</v>
+        <v>-10452.4876</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0574</v>
+        <v>-0.07190000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>10.0658</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>4955.9007</v>
       </c>
       <c r="F7" s="1">
         <v>993.463</v>
       </c>
       <c r="G7" s="1">
-        <v>5994.505</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60025.9755</v>
+        <v>49625.912</v>
       </c>
       <c r="I7" s="1">
-        <v>60856.9973</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>10.1521</v>
+        <v>49625.912</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50419.1818</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>10.1736</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>60025.9755</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0305</v>
+        <v>0.0367</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>11.2848</v>
       </c>
       <c r="E8" s="1">
+        <v>5949.3638</v>
+      </c>
+      <c r="F8" s="1">
+        <v>380.308</v>
+      </c>
+      <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
-      <c r="F8" s="1">
-        <v>335.1668</v>
-      </c>
-      <c r="G8" s="1">
-        <v>6329.6717</v>
-      </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>66789.3423</v>
       </c>
       <c r="I8" s="1">
-        <v>64639.2874</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>10.2121</v>
+        <v>66789.3423</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>54710.8814</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>9.196099999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-3782.2901</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>6217.7099</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>77276.50380000001</v>
+        <v>-4291.6996</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.1035</v>
+        <v>0.1201</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>11.1341</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>6329.6717</v>
       </c>
       <c r="F9" s="1">
         <v>1020.5583</v>
       </c>
       <c r="G9" s="1">
-        <v>7350.23</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>70109.9761</v>
       </c>
       <c r="I9" s="1">
-        <v>76002.28539999999</v>
+        <v>5708.3004</v>
       </c>
       <c r="J9" s="1">
-        <v>10.3401</v>
+        <v>75818.27650000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>66073.8793</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>10.4388</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-11362.998</v>
       </c>
-      <c r="O9" s="1">
-        <v>4854.712</v>
-      </c>
-      <c r="P9" s="1">
-        <v>86268.79979999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0115</v>
+        <v>-0.0126</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>10.9064</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>7350.23</v>
       </c>
       <c r="F10" s="1">
         <v>1112.7055</v>
       </c>
       <c r="G10" s="1">
-        <v>8462.935600000001</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>79748.5257</v>
       </c>
       <c r="I10" s="1">
-        <v>88137.8971</v>
+        <v>4345.3024</v>
       </c>
       <c r="J10" s="1">
-        <v>10.4146</v>
+        <v>84093.8281</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>78209.49099999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>10.6404</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-12135.6117</v>
       </c>
-      <c r="O10" s="1">
-        <v>2719.1003</v>
-      </c>
-      <c r="P10" s="1">
-        <v>94540.2586</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.018</v>
+        <v>-0.0201</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>11.6267</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>8462.935600000001</v>
       </c>
       <c r="F11" s="1">
         <v>380.0189</v>
       </c>
       <c r="G11" s="1">
-        <v>8842.9545</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>97884.85159999999</v>
       </c>
       <c r="I11" s="1">
-        <v>92556.26270000001</v>
+        <v>2209.6907</v>
       </c>
       <c r="J11" s="1">
-        <v>10.4667</v>
+        <v>100094.5423</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>82627.8566</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>9.763500000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-4418.3656</v>
       </c>
-      <c r="O11" s="1">
-        <v>8300.734700000001</v>
-      </c>
-      <c r="P11" s="1">
-        <v>110580.9988</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0578</v>
+        <v>0.0638</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>12.3095</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>8842.9545</v>
       </c>
       <c r="F12" s="1">
         <v>367.8368</v>
       </c>
       <c r="G12" s="1">
-        <v>9210.791300000001</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>108287.283</v>
       </c>
       <c r="I12" s="1">
-        <v>97084.1498</v>
+        <v>7791.3251</v>
       </c>
       <c r="J12" s="1">
-        <v>10.5403</v>
+        <v>116078.6082</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>87155.7438</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>9.856</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-4527.8871</v>
       </c>
-      <c r="O12" s="1">
-        <v>13772.8475</v>
-      </c>
-      <c r="P12" s="1">
-        <v>126564.5129</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0496</v>
+        <v>0.0544</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>13.3876</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>9210.791300000001</v>
       </c>
       <c r="F13" s="1">
         <v>51.3931</v>
       </c>
       <c r="G13" s="1">
-        <v>9262.1844</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>122671.1601</v>
       </c>
       <c r="I13" s="1">
-        <v>97772.1801</v>
+        <v>13263.438</v>
       </c>
       <c r="J13" s="1">
-        <v>10.5561</v>
+        <v>135934.5981</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>87843.7741</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>9.537000000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-688.0303</v>
       </c>
-      <c r="O13" s="1">
-        <v>23084.8172</v>
-      </c>
-      <c r="P13" s="1">
-        <v>146440.441</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0723</v>
+        <v>0.07820000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>13.3141</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>9262.1844</v>
       </c>
       <c r="F14" s="1">
         <v>-9262.1844</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>122677.6318</v>
       </c>
       <c r="I14" s="1">
-        <v>97772.1801</v>
+        <v>22575.4077</v>
       </c>
       <c r="J14" s="1">
-        <v>10.5561</v>
+        <v>145253.0395</v>
       </c>
       <c r="K14" s="1">
+        <v>87843.7741</v>
+      </c>
+      <c r="L14" s="1">
+        <v>9.4841</v>
+      </c>
+      <c r="M14" s="1">
         <v>0.6</v>
       </c>
-      <c r="L14" s="1">
-        <v>5001.5796</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
       <c r="N14" s="1">
-        <v>127679.2114</v>
+        <v>4973.8273</v>
       </c>
       <c r="O14" s="1">
-        <v>150764.0286</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>150764.0286</v>
+        <v>127651.4591</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0363</v>
+        <v>-0.0047</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>10.7352</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>931.515</v>
       </c>
       <c r="G2" s="1">
-        <v>931.515</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.114600000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>10.7352</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.114600000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>10.2783</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>931.515</v>
       </c>
       <c r="F3" s="1">
         <v>972.9235</v>
       </c>
       <c r="G3" s="1">
-        <v>1904.4386</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>19472.8842</v>
+        <v>9524.741</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10.5018</v>
+        <v>9524.741</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>10.7352</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19472.8842</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0238</v>
+        <v>-0.0475</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>9.807499999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1904.4386</v>
       </c>
       <c r="F4" s="1">
         <v>1019.6278</v>
       </c>
       <c r="G4" s="1">
-        <v>2924.0664</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>28528.9461</v>
+        <v>18580.8452</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>10.2597</v>
+        <v>18580.8452</v>
       </c>
       <c r="K4" s="1">
+        <v>20000</v>
+      </c>
+      <c r="L4" s="1">
+        <v>10.5018</v>
+      </c>
+      <c r="M4" s="1">
         <v>0.5</v>
       </c>
-      <c r="L4" s="1">
-        <v>856.9973</v>
-      </c>
-      <c r="M4" s="1">
-        <v>10000</v>
-      </c>
       <c r="N4" s="1">
-        <v>-9143.002699999999</v>
+        <v>419.1818</v>
       </c>
       <c r="O4" s="1">
-        <v>856.9973</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>29385.9435</v>
+        <v>-9580.8182</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0029</v>
+        <v>-0.0483</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>10.4459</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>2924.0664</v>
       </c>
       <c r="F5" s="1">
         <v>983.2837</v>
       </c>
       <c r="G5" s="1">
-        <v>3907.3501</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40604.01</v>
+        <v>30386.0207</v>
       </c>
       <c r="I5" s="1">
-        <v>40271.2833</v>
+        <v>419.1818</v>
       </c>
       <c r="J5" s="1">
-        <v>10.3065</v>
+        <v>30805.2025</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30271.2833</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>10.3525</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10271.2833</v>
       </c>
-      <c r="O5" s="1">
-        <v>585.7141</v>
-      </c>
-      <c r="P5" s="1">
-        <v>41189.7241</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0458</v>
+        <v>0.07779999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>9.6988</v>
       </c>
       <c r="E6" s="1">
+        <v>3907.3501</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1046.3045</v>
+      </c>
+      <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
-      <c r="F6" s="1">
-        <v>1091.4458</v>
-      </c>
-      <c r="G6" s="1">
-        <v>4998.7959</v>
-      </c>
       <c r="H6" s="1">
-        <v>48230.3819</v>
+        <v>37699.6767</v>
       </c>
       <c r="I6" s="1">
-        <v>50856.9973</v>
+        <v>147.8985</v>
       </c>
       <c r="J6" s="1">
-        <v>10.1738</v>
+        <v>37847.5752</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40419.1818</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>10.3444</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10585.7141</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>48230.3819</v>
+        <v>-10147.8985</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0578</v>
+        <v>-0.0725</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>10.0658</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>4953.6546</v>
       </c>
       <c r="F7" s="1">
         <v>993.463</v>
       </c>
       <c r="G7" s="1">
-        <v>5992.2589</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>60003.4841</v>
+        <v>49603.4207</v>
       </c>
       <c r="I7" s="1">
-        <v>60856.9973</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>10.1559</v>
+        <v>49603.4207</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50419.1818</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>10.1782</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>60003.4841</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0304</v>
+        <v>0.0367</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>11.2848</v>
       </c>
       <c r="E8" s="1">
+        <v>5947.1177</v>
+      </c>
+      <c r="F8" s="1">
+        <v>478.4502</v>
+      </c>
+      <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
-      <c r="F8" s="1">
-        <v>433.309</v>
-      </c>
-      <c r="G8" s="1">
-        <v>6425.5678</v>
-      </c>
       <c r="H8" s="1">
-        <v>72135.3521</v>
+        <v>66764.1269</v>
       </c>
       <c r="I8" s="1">
-        <v>65746.8023</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>10.2321</v>
+        <v>66764.1269</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>55818.3963</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>9.3858</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-4889.805</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>5110.195</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>77245.5471</v>
+        <v>-5399.2146</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.1035</v>
+        <v>0.1201</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>11.1341</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>6425.5678</v>
       </c>
       <c r="F9" s="1">
         <v>1054.9047</v>
       </c>
       <c r="G9" s="1">
-        <v>7480.4725</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>82856.7056</v>
+        <v>71172.15949999999</v>
       </c>
       <c r="I9" s="1">
-        <v>77492.21649999999</v>
+        <v>4600.7854</v>
       </c>
       <c r="J9" s="1">
-        <v>10.3593</v>
+        <v>75772.9449</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>67563.81050000001</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>10.5148</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-11745.4141</v>
       </c>
-      <c r="O9" s="1">
-        <v>3364.7809</v>
-      </c>
-      <c r="P9" s="1">
-        <v>86221.4865</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0117</v>
+        <v>-0.0129</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>10.9064</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>7480.4725</v>
       </c>
       <c r="F10" s="1">
         <v>1154.274</v>
       </c>
       <c r="G10" s="1">
-        <v>8634.746499999999</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>93685.2727</v>
+        <v>81161.6306</v>
       </c>
       <c r="I10" s="1">
-        <v>90081.1905</v>
+        <v>2855.3713</v>
       </c>
       <c r="J10" s="1">
-        <v>10.4324</v>
+        <v>84017.0019</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80152.78449999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>10.7149</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-12588.974</v>
       </c>
-      <c r="O10" s="1">
-        <v>775.8068</v>
-      </c>
-      <c r="P10" s="1">
-        <v>94461.07950000001</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0183</v>
+        <v>-0.0205</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>11.6267</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>8634.746499999999</v>
       </c>
       <c r="F11" s="1">
         <v>410.6808</v>
       </c>
       <c r="G11" s="1">
-        <v>9045.427299999999</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>104622.1254</v>
+        <v>99872.0686</v>
       </c>
       <c r="I11" s="1">
-        <v>94856.05250000001</v>
+        <v>266.3973</v>
       </c>
       <c r="J11" s="1">
-        <v>10.4866</v>
+        <v>100138.4658</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>84927.6465</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>9.835599999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-4774.862</v>
       </c>
-      <c r="O11" s="1">
-        <v>6000.9449</v>
-      </c>
-      <c r="P11" s="1">
-        <v>110623.0703</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.059</v>
+        <v>0.06510000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>12.3095</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>9045.427299999999</v>
       </c>
       <c r="F12" s="1">
         <v>400.2795</v>
       </c>
       <c r="G12" s="1">
-        <v>9445.7068</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>115668.3467</v>
+        <v>110766.6842</v>
       </c>
       <c r="I12" s="1">
-        <v>99783.2929</v>
+        <v>5491.5353</v>
       </c>
       <c r="J12" s="1">
-        <v>10.5639</v>
+        <v>116258.2195</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>89854.88679999999</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>9.9337</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-4927.2404</v>
       </c>
-      <c r="O12" s="1">
-        <v>11073.7045</v>
-      </c>
-      <c r="P12" s="1">
-        <v>126742.0512</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0507</v>
+        <v>0.0556</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>13.3876</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>9445.7068</v>
       </c>
       <c r="F13" s="1">
         <v>76.97880000000001</v>
       </c>
       <c r="G13" s="1">
-        <v>9522.6855</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>126825.0301</v>
+        <v>125799.8117</v>
       </c>
       <c r="I13" s="1">
-        <v>100813.8536</v>
+        <v>10564.2949</v>
       </c>
       <c r="J13" s="1">
-        <v>10.5867</v>
+        <v>136364.1067</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>90885.44749999999</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>9.6219</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-1030.5607</v>
       </c>
-      <c r="O13" s="1">
-        <v>20043.1438</v>
-      </c>
-      <c r="P13" s="1">
-        <v>146868.1739</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0741</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>13.3141</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>9522.6855</v>
       </c>
       <c r="F14" s="1">
         <v>-9522.6855</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>126127.9696</v>
       </c>
       <c r="I14" s="1">
-        <v>100813.8536</v>
+        <v>19533.7342</v>
       </c>
       <c r="J14" s="1">
-        <v>10.5867</v>
+        <v>145661.7038</v>
       </c>
       <c r="K14" s="1">
+        <v>90885.44749999999</v>
+      </c>
+      <c r="L14" s="1">
+        <v>9.5441</v>
+      </c>
+      <c r="M14" s="1">
         <v>0.6</v>
       </c>
-      <c r="L14" s="1">
-        <v>5142.2502</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
       <c r="N14" s="1">
-        <v>131270.2197</v>
+        <v>5100.6816</v>
       </c>
       <c r="O14" s="1">
-        <v>151313.3635</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>151313.3635</v>
+        <v>131228.6512</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0354</v>
+        <v>-0.0048</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>10.7352</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>931.515</v>
       </c>
       <c r="G2" s="1">
-        <v>931.515</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.114600000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>10.7352</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.114600000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>10.2783</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>931.515</v>
       </c>
       <c r="F3" s="1">
         <v>972.9235</v>
       </c>
       <c r="G3" s="1">
-        <v>1904.4386</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>19472.8842</v>
+        <v>9524.741</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10.5018</v>
+        <v>9524.741</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>10.7352</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19472.8842</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0238</v>
+        <v>-0.0475</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>9.807499999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1904.4386</v>
       </c>
       <c r="F4" s="1">
         <v>1019.6278</v>
       </c>
       <c r="G4" s="1">
-        <v>2924.0664</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>28528.9461</v>
+        <v>18580.8452</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>10.2597</v>
+        <v>18580.8452</v>
       </c>
       <c r="K4" s="1">
+        <v>20000</v>
+      </c>
+      <c r="L4" s="1">
+        <v>10.5018</v>
+      </c>
+      <c r="M4" s="1">
         <v>0.5</v>
       </c>
-      <c r="L4" s="1">
-        <v>856.9973</v>
-      </c>
-      <c r="M4" s="1">
-        <v>10000</v>
-      </c>
       <c r="N4" s="1">
-        <v>-9143.002699999999</v>
+        <v>419.1818</v>
       </c>
       <c r="O4" s="1">
-        <v>856.9973</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>29385.9435</v>
+        <v>-9580.8182</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0029</v>
+        <v>-0.0483</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>10.4459</v>
       </c>
       <c r="E5" s="1">
+        <v>2924.0664</v>
+      </c>
+      <c r="F5" s="1">
+        <v>997.4422</v>
+      </c>
+      <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
-      <c r="F5" s="1">
-        <v>1012.6363</v>
-      </c>
-      <c r="G5" s="1">
-        <v>3936.7027</v>
-      </c>
       <c r="H5" s="1">
-        <v>40909.0337</v>
+        <v>30386.0207</v>
       </c>
       <c r="I5" s="1">
-        <v>40577.8979</v>
+        <v>419.1818</v>
       </c>
       <c r="J5" s="1">
-        <v>10.3076</v>
+        <v>30805.2025</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30419.1818</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>10.403</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-10577.8979</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>279.0994</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>41188.1332</v>
+        <v>-10419.1818</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0458</v>
+        <v>0.07779999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>9.6988</v>
       </c>
       <c r="E6" s="1">
+        <v>3921.5086</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1031.0554</v>
+      </c>
+      <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
-      <c r="F6" s="1">
-        <v>1059.8321</v>
-      </c>
-      <c r="G6" s="1">
-        <v>4996.5348</v>
-      </c>
       <c r="H6" s="1">
-        <v>48208.5665</v>
+        <v>37836.2837</v>
       </c>
       <c r="I6" s="1">
-        <v>50856.9973</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>10.1785</v>
+        <v>37836.2837</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40419.1818</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>10.307</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10279.0994</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>-0</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>48208.5665</v>
+        <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0582</v>
+        <v>-0.0728</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>10.0658</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>4952.564</v>
       </c>
       <c r="F7" s="1">
         <v>993.463</v>
       </c>
       <c r="G7" s="1">
-        <v>5989.9978</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>59980.8432</v>
+        <v>49592.4997</v>
       </c>
       <c r="I7" s="1">
-        <v>60856.9973</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>10.1598</v>
+        <v>49592.4997</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50419.1818</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>10.1804</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>59980.8432</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0304</v>
+        <v>0.0367</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>11.2848</v>
       </c>
       <c r="E8" s="1">
+        <v>5946.027</v>
+      </c>
+      <c r="F8" s="1">
+        <v>577.0431</v>
+      </c>
+      <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
-      <c r="F8" s="1">
-        <v>533.0723</v>
-      </c>
-      <c r="G8" s="1">
-        <v>6523.0701</v>
-      </c>
       <c r="H8" s="1">
-        <v>73229.94190000001</v>
+        <v>66751.88310000001</v>
       </c>
       <c r="I8" s="1">
-        <v>66872.61139999999</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>10.2517</v>
+        <v>66751.88310000001</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>56930.9976</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>9.5746</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-6015.6141</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>3984.3859</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>77214.3279</v>
+        <v>-6511.8158</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.1034</v>
+        <v>0.1201</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>11.1341</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>6523.0701</v>
       </c>
       <c r="F9" s="1">
         <v>1090.2692</v>
       </c>
       <c r="G9" s="1">
-        <v>7613.3393</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>84328.39109999999</v>
+        <v>72252.13370000001</v>
       </c>
       <c r="I9" s="1">
-        <v>79011.7773</v>
+        <v>3488.1842</v>
       </c>
       <c r="J9" s="1">
-        <v>10.3781</v>
+        <v>75740.31789999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>69070.1635</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>10.5886</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-12139.1659</v>
       </c>
-      <c r="O9" s="1">
-        <v>1845.2201</v>
-      </c>
-      <c r="P9" s="1">
-        <v>86173.61109999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0119</v>
+        <v>-0.0132</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>10.9064</v>
       </c>
       <c r="E10" s="1">
+        <v>7613.3393</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1040.5834</v>
+      </c>
+      <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
-      <c r="F10" s="1">
-        <v>1086.0797</v>
-      </c>
-      <c r="G10" s="1">
-        <v>8699.419</v>
-      </c>
       <c r="H10" s="1">
-        <v>94386.95630000001</v>
+        <v>82603.2084</v>
       </c>
       <c r="I10" s="1">
-        <v>90856.9973</v>
+        <v>1349.0183</v>
       </c>
       <c r="J10" s="1">
-        <v>10.444</v>
+        <v>83952.2267</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80419.18180000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>10.5629</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-11845.2201</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>-0</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>94386.95630000001</v>
+        <v>-11349.0183</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0186</v>
+        <v>-0.0209</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>11.6267</v>
       </c>
       <c r="E11" s="1">
+        <v>8653.9226</v>
+      </c>
+      <c r="F11" s="1">
+        <v>599.4442</v>
+      </c>
+      <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
-      <c r="F11" s="1">
-        <v>553.9478</v>
-      </c>
-      <c r="G11" s="1">
-        <v>9253.3668</v>
-      </c>
       <c r="H11" s="1">
-        <v>107027.2167</v>
+        <v>100093.8652</v>
       </c>
       <c r="I11" s="1">
-        <v>97297.5824</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>10.5148</v>
+        <v>100093.8652</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>87388.73970000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>10.0982</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-6440.5851</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>3559.4149</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>110586.6316</v>
+        <v>-6969.5579</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0594</v>
+        <v>0.0654</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>12.3095</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>9253.3668</v>
       </c>
       <c r="F12" s="1">
         <v>434.4088</v>
       </c>
       <c r="G12" s="1">
-        <v>9687.775600000001</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>118632.6249</v>
+        <v>113313.0288</v>
       </c>
       <c r="I12" s="1">
-        <v>102644.9373</v>
+        <v>3030.4421</v>
       </c>
       <c r="J12" s="1">
-        <v>10.5953</v>
+        <v>116343.4709</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>92736.09450000001</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>10.0219</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-5347.3549</v>
       </c>
-      <c r="O12" s="1">
-        <v>8212.059999999999</v>
-      </c>
-      <c r="P12" s="1">
-        <v>126844.685</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0519</v>
+        <v>0.0568</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>13.3876</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>9687.775600000001</v>
       </c>
       <c r="F13" s="1">
         <v>104.2469</v>
       </c>
       <c r="G13" s="1">
-        <v>9792.022499999999</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>130412.1143</v>
+        <v>129023.733</v>
       </c>
       <c r="I13" s="1">
-        <v>104040.5533</v>
+        <v>7683.0872</v>
       </c>
       <c r="J13" s="1">
-        <v>10.625</v>
+        <v>136706.8203</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>94131.7105</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>9.7165</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-1395.616</v>
       </c>
-      <c r="O13" s="1">
-        <v>16816.444</v>
-      </c>
-      <c r="P13" s="1">
-        <v>147228.5583</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0759</v>
+        <v>0.082</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,7 +4396,7 @@
         <v>13.3141</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>9792.022499999999</v>
       </c>
       <c r="F14" s="1">
         <v>-9792.022499999999</v>
@@ -4432,34 +4405,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>129695.3383</v>
       </c>
       <c r="I14" s="1">
-        <v>104040.5533</v>
+        <v>16287.4712</v>
       </c>
       <c r="J14" s="1">
-        <v>10.625</v>
+        <v>145982.8095</v>
       </c>
       <c r="K14" s="1">
+        <v>94131.7105</v>
+      </c>
+      <c r="L14" s="1">
+        <v>9.613099999999999</v>
+      </c>
+      <c r="M14" s="1">
         <v>0.6</v>
       </c>
-      <c r="L14" s="1">
-        <v>5287.6922</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
       <c r="N14" s="1">
-        <v>134983.0304</v>
+        <v>5231.3988</v>
       </c>
       <c r="O14" s="1">
-        <v>151799.4745</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>151799.4745</v>
+        <v>134926.7371</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0345</v>
+        <v>-0.0049</v>
       </c>
     </row>
   </sheetData>
@@ -4479,7 +4452,7 @@
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" customWidth="1"/>
   </cols>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>13.2782</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>10.8844</v>
+        <v>9.979799999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>10.5256</v>
+        <v>9.423</v>
       </c>
       <c r="E3" s="1">
-        <v>10.5561</v>
+        <v>9.4841</v>
       </c>
       <c r="F3" s="1">
-        <v>10.5867</v>
+        <v>9.5441</v>
       </c>
       <c r="G3" s="1">
-        <v>10.625</v>
+        <v>9.613099999999999</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.2372</v>
       </c>
       <c r="C4" s="3">
-        <v>0.2251</v>
+        <v>0.2357</v>
       </c>
       <c r="D4" s="3">
-        <v>0.2057</v>
+        <v>0.2227</v>
       </c>
       <c r="E4" s="3">
-        <v>0.2096</v>
+        <v>0.2257</v>
       </c>
       <c r="F4" s="3">
-        <v>0.2134</v>
+        <v>0.2288</v>
       </c>
       <c r="G4" s="3">
-        <v>0.2167</v>
+        <v>0.2312</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.2019</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1654</v>
+        <v>0.2068</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1625</v>
+        <v>0.2013</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1636</v>
+        <v>0.2027</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1647</v>
+        <v>0.2041</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1656</v>
+        <v>0.2053</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>1.074</v>
       </c>
       <c r="C6" s="4">
-        <v>1.2376</v>
+        <v>1.0417</v>
       </c>
       <c r="D6" s="4">
-        <v>1.1407</v>
+        <v>1.0056</v>
       </c>
       <c r="E6" s="4">
-        <v>1.1568</v>
+        <v>1.0136</v>
       </c>
       <c r="F6" s="4">
-        <v>1.1728</v>
+        <v>1.0216</v>
       </c>
       <c r="G6" s="4">
-        <v>1.1861</v>
+        <v>1.0276</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.5483</v>
+        <v>0.3589</v>
       </c>
       <c r="D7" s="3">
-        <v>0.5458</v>
+        <v>0.5328000000000001</v>
       </c>
       <c r="E7" s="3">
-        <v>0.5464</v>
+        <v>0.5333</v>
       </c>
       <c r="F7" s="3">
-        <v>0.5471</v>
+        <v>0.5339</v>
       </c>
       <c r="G7" s="3">
-        <v>0.547</v>
+        <v>0.5339</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>6852.9756</v>
+        <v>5988.6387</v>
       </c>
       <c r="D8" s="1">
-        <v>5722.5197</v>
+        <v>5269.9036</v>
       </c>
       <c r="E8" s="1">
-        <v>5858.5769</v>
+        <v>5393.009</v>
       </c>
       <c r="F8" s="1">
-        <v>5999.2475</v>
+        <v>5519.8634</v>
       </c>
       <c r="G8" s="1">
-        <v>6144.6895</v>
+        <v>5650.5806</v>
       </c>
     </row>
   </sheetData>
